--- a/distance_matrix.xlsx
+++ b/distance_matrix.xlsx
@@ -440,37 +440,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>172.784692984927</v>
+        <v>91.7919867712983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>139.1375011313011</v>
+        <v>15.15028699916572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103.4086519617496</v>
+        <v>71.25048622713983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>59.9991151527424</v>
+        <v>97.30674343356917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>137.0957006383987</v>
+        <v>4.02868801369873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>144.5543949151635</v>
+        <v>21.54708689803379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>162.6547227723133</v>
+        <v>45.82345129955119</v>
       </c>
     </row>
   </sheetData>

--- a/distance_matrix.xlsx
+++ b/distance_matrix.xlsx
@@ -440,37 +440,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91.7919867712983</v>
+        <v>279.2705621241881</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15.15028699916572</v>
+        <v>219.3198050219833</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71.25048622713983</v>
+        <v>151.6520403591716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97.30674343356917</v>
+        <v>94.64860734509459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.02868801369873</v>
+        <v>84.62785292777974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21.54708689803379</v>
+        <v>31.07336785999269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45.82345129955119</v>
+        <v>58.09273013522886</v>
       </c>
     </row>
   </sheetData>

--- a/distance_matrix.xlsx
+++ b/distance_matrix.xlsx
@@ -440,37 +440,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>279.2705621241881</v>
+        <v>89.93395180765968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>219.3198050219833</v>
+        <v>11.16936297870078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>151.6520403591716</v>
+        <v>79.02043402505873</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94.64860734509459</v>
+        <v>92.73304949810104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84.62785292777974</v>
+        <v>11.88043555339719</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31.07336785999269</v>
+        <v>28.05852984262585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>58.09273013522886</v>
+        <v>39.14612092510507</v>
       </c>
     </row>
   </sheetData>
